--- a/PURCHASE REGISTER-21.xlsx
+++ b/PURCHASE REGISTER-21.xlsx
@@ -28,6 +28,120 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>om</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY- 5039 KG 
+RATE - 70 RS 
+AMT = 352730 RS </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY- 5039 KG 
+RATE - 70 RS 
+AMT = 352730 RS </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY- 5039 KG 
+RATE - 70 RS 
+AMT = 352730 RS </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY- 5039 KG 
+RATE - 70 RS 
+AMT = 352730 RS </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>om</author>
@@ -141,7 +255,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>om</author>
@@ -1163,7 +1277,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>om</author>
@@ -1899,12 +2013,273 @@
         </r>
       </text>
     </comment>
+    <comment ref="D67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 2 NOS
+RAT E - 1280.08 RS 
+AMT = 2560.16 RS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 19 PCS 
+RATE - 350 RS 
+AMT =6650 RS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 540 KG 
+RATE - 9 RS 
+AMT = 4860 RS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY 121 KG
+RATE 44 RS 
+AMT = 5324 RS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 33 KG
+RATE - 43.50 RS
+AMT = 1435.50 RS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 28 KG 
+RATE 43.50 RA 
+AMT = 1218 RS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 86 KG 
+RATE - 54 RS 
+AMT = 4644 RS 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 19 KG 
+RATE - 43.50 RS 
+AMT = 826.50 RS </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY 0.225 MT 
+RATE 53,500 RS 
+AMT =12037.50 RS </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>om:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+QTY - 0.340 MT 
+RATE - 53,500 RS 
+AMT =18190 RS </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="558">
   <si>
     <t xml:space="preserve">BASIC AMOUNT </t>
   </si>
@@ -3497,6 +3872,87 @@
   </si>
   <si>
     <t xml:space="preserve">MS COMPONENTS 8 MM </t>
+  </si>
+  <si>
+    <t>ISH20-21/2330</t>
+  </si>
+  <si>
+    <t>Total GST</t>
+  </si>
+  <si>
+    <t>MS BAR</t>
+  </si>
+  <si>
+    <t>2000X250 - 3 SET</t>
+  </si>
+  <si>
+    <t>BAS JACK 16 PCS</t>
+  </si>
+  <si>
+    <t>1400X1200X1000 - 4 SET</t>
+  </si>
+  <si>
+    <t>1800X1200X800 - 1 SET</t>
+  </si>
+  <si>
+    <t>1800X2500 - 1 SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800X500 - 1 SET </t>
+  </si>
+  <si>
+    <t>2500X600 - 4 SET</t>
+  </si>
+  <si>
+    <t>1405 BEAM-64 PCS</t>
+  </si>
+  <si>
+    <t>1500X600-32 PCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHRI LAXMI STEELS </t>
+  </si>
+  <si>
+    <t>PLOT NO. 593, LOHA MANDI, SECTOR-59, BALLABHGARH, FARIDABAD(HARYANA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUND </t>
+  </si>
+  <si>
+    <t>BAR FLAT</t>
+  </si>
+  <si>
+    <t>HR SHEET</t>
+  </si>
+  <si>
+    <t>06ADWFS6234M1Z9</t>
+  </si>
+  <si>
+    <t>20-21/13837</t>
+  </si>
+  <si>
+    <t>SANJEEV INDUSTRIAL CORPORATION</t>
+  </si>
+  <si>
+    <t>B-146=149, NEHRU GROUND, NIT FARIDABAD-121001(HARYANA)</t>
+  </si>
+  <si>
+    <t>HR COILS 3.00X1250 (3.00X1250X2500)</t>
+  </si>
+  <si>
+    <t>HR COILS 3.40X1250 (3.40X1250X2500)</t>
+  </si>
+  <si>
+    <t>06ABSFS0140G1Z9</t>
+  </si>
+  <si>
+    <t>20-21/SIC/05164</t>
+  </si>
+  <si>
+    <t>LABOUR CHARGE</t>
   </si>
 </sst>
 </file>
@@ -3747,7 +4203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3952,6 +4408,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4137,25 +4596,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="61534208"/>
-        <c:axId val="61535744"/>
+        <c:axId val="61943808"/>
+        <c:axId val="61945344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61534208"/>
+        <c:axId val="61943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61535744"/>
+        <c:crossAx val="61945344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61535744"/>
+        <c:axId val="61945344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,7 +4623,7 @@
         <c:numFmt formatCode="0.00_);\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="61534208"/>
+        <c:crossAx val="61943808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4176,7 +4635,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4529,10 +4988,10 @@
       <c r="B1" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -4571,11 +5030,11 @@
       <c r="I2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
       <c r="M2" s="35" t="s">
         <v>16</v>
       </c>
@@ -4916,10 +5375,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -4959,11 +5418,11 @@
       <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
       <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
@@ -7799,10 +8258,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="122"/>
+      <c r="C1" s="123"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -7842,11 +8301,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -10547,10 +11006,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -10590,11 +11049,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -11534,10 +11993,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -11577,11 +12036,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -12520,10 +12979,10 @@
       <c r="B1" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -12562,11 +13021,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -13239,10 +13698,10 @@
       <c r="B1" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -13281,11 +13740,11 @@
       <c r="I2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
       <c r="M2" s="35" t="s">
         <v>16</v>
       </c>
@@ -13621,10 +14080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13640,7 +14099,7 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13649,10 +14108,10 @@
       <c r="B1" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -13691,55 +14150,55 @@
       <c r="I2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
       <c r="M2" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24">
+    <row r="3" spans="1:13">
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>76</v>
+      <c r="B3" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>457</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>301</v>
+        <v>533</v>
       </c>
       <c r="E3" s="41">
-        <v>7308</v>
+        <v>7214</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="G3" s="41">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H3" s="50">
-        <v>44148</v>
+        <v>44231</v>
       </c>
       <c r="I3" s="41">
-        <v>77010</v>
+        <v>19995</v>
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="45">
         <f>I3*9%</f>
-        <v>6930.9</v>
+        <v>1799.55</v>
       </c>
       <c r="L3" s="45">
         <f>I3*9%</f>
-        <v>6930.9</v>
+        <v>1799.55</v>
       </c>
       <c r="M3" s="46">
-        <f t="shared" ref="M3:M7" si="0">SUM(I3,K3,L3,)</f>
-        <v>90871.799999999988</v>
+        <f t="shared" ref="M3:M24" si="0">SUM(I3,K3,L3,)</f>
+        <v>23594.1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -13753,35 +14212,35 @@
         <v>245</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="E4" s="41">
-        <v>4000</v>
+        <v>405</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>357</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="G4" s="41">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H4" s="42">
-        <v>44158</v>
+        <v>44245</v>
       </c>
       <c r="I4" s="43">
-        <v>1000640</v>
+        <v>419300</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="45">
         <f>I4*9%</f>
-        <v>90057.599999999991</v>
+        <v>37737</v>
       </c>
       <c r="L4" s="45">
         <f>I4*9%</f>
-        <v>90057.599999999991</v>
+        <v>37737</v>
       </c>
       <c r="M4" s="46">
         <f t="shared" si="0"/>
-        <v>1180755.2000000002</v>
+        <v>494774</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -13789,18 +14248,12 @@
       <c r="B5" s="38"/>
       <c r="C5" s="40"/>
       <c r="D5" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="41">
-        <v>7308</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="41">
-        <v>23</v>
-      </c>
-      <c r="H5" s="50"/>
+        <v>422</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="43"/>
       <c r="J5" s="41"/>
       <c r="K5" s="45"/>
@@ -13808,100 +14261,50 @@
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="36">
-        <v>3</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>245</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="41">
-        <v>24</v>
-      </c>
-      <c r="H6" s="42">
-        <v>44158</v>
-      </c>
-      <c r="I6" s="43">
-        <v>599680</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="45">
-        <f>I6*9%</f>
-        <v>53971.199999999997</v>
-      </c>
-      <c r="L6" s="45">
-        <f>I6*9%</f>
-        <v>53971.199999999997</v>
-      </c>
-      <c r="M6" s="46">
-        <f t="shared" si="0"/>
-        <v>707622.39999999991</v>
-      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="36">
-        <v>4</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>289</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" s="41">
-        <v>998860</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="41">
-        <v>25</v>
-      </c>
-      <c r="H7" s="50">
-        <v>44159</v>
-      </c>
-      <c r="I7" s="43">
-        <v>141625</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="45">
-        <f>I7*6%</f>
-        <v>8497.5</v>
-      </c>
-      <c r="L7" s="45">
-        <f>I7*6%</f>
-        <v>8497.5</v>
-      </c>
-      <c r="M7" s="46">
-        <f t="shared" si="0"/>
-        <v>158620</v>
-      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="36"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
-        <v>359</v>
+        <v>535</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="43"/>
       <c r="J8" s="41"/>
       <c r="K8" s="45"/>
@@ -13909,116 +14312,492 @@
       <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="41" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
+        <v>426</v>
+      </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>536</v>
+      </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>537</v>
+      </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="71"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="38"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
+      <c r="D13" s="41" t="s">
+        <v>427</v>
+      </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="41"/>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
       <c r="M13" s="46"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="41">
+        <v>51</v>
+      </c>
+      <c r="H14" s="42">
+        <v>44245</v>
+      </c>
+      <c r="I14" s="43">
+        <v>333900</v>
+      </c>
       <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
+      <c r="K14" s="45">
+        <f>I14*9%</f>
+        <v>30051</v>
+      </c>
+      <c r="L14" s="45">
+        <f>I14*9%</f>
+        <v>30051</v>
+      </c>
+      <c r="M14" s="46">
+        <f t="shared" si="0"/>
+        <v>394002</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41" t="s">
+        <v>430</v>
+      </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="41"/>
-      <c r="K15" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="43">
-        <f>SUM(M3:M13)</f>
-        <v>2137869.4000000004</v>
-      </c>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="36">
+        <v>4</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="41">
+        <v>52</v>
+      </c>
+      <c r="H24" s="42">
+        <v>44245</v>
+      </c>
+      <c r="I24" s="43">
+        <v>150850</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="45">
+        <f>I24*9%</f>
+        <v>13576.5</v>
+      </c>
+      <c r="L24" s="45">
+        <f>I24*9%</f>
+        <v>13576.5</v>
+      </c>
+      <c r="M24" s="46">
+        <f t="shared" si="0"/>
+        <v>178003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="41"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="116">
+        <v>5</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="41">
+        <v>53</v>
+      </c>
+      <c r="H27" s="50">
+        <v>44254</v>
+      </c>
+      <c r="I27" s="41">
+        <v>496300</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="K27" s="45">
+        <f>I27*9%</f>
+        <v>44667</v>
+      </c>
+      <c r="L27" s="45">
+        <f>I27*9%</f>
+        <v>44667</v>
+      </c>
+      <c r="M27" s="46">
+        <f t="shared" ref="M27" si="1">SUM(I27,K27,L27,)</f>
+        <v>585634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="48">
+        <f>SUM(K3:K27)</f>
+        <v>127831.05</v>
+      </c>
+      <c r="L28" s="48">
+        <f>SUM(L3:L27)</f>
+        <v>127831.05</v>
+      </c>
+      <c r="M28" s="48">
+        <f>SUM(K28:L28)</f>
+        <v>255662.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="41"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="71"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="41"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14026,6 +14805,8 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14033,8 +14814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14059,10 +14840,10 @@
       <c r="B1" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -14101,11 +14882,11 @@
       <c r="I2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
       <c r="M2" s="35" t="s">
         <v>16</v>
       </c>
@@ -15778,8 +16559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15800,10 +16581,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -15843,11 +16624,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -18985,10 +19766,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19009,10 +19790,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -19052,11 +19833,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -19078,7 +19859,7 @@
       <c r="F3" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="32">
         <v>376</v>
       </c>
       <c r="H3" s="50">
@@ -19120,7 +19901,7 @@
       <c r="F4" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="32">
         <v>444</v>
       </c>
       <c r="H4" s="50">
@@ -19164,7 +19945,7 @@
       <c r="F5" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="32">
         <v>3119</v>
       </c>
       <c r="H5" s="50">
@@ -19200,7 +19981,7 @@
       <c r="F6" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="32">
         <v>3119</v>
       </c>
       <c r="H6" s="50">
@@ -19236,7 +20017,7 @@
       <c r="F7" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="32">
         <v>3119</v>
       </c>
       <c r="H7" s="50">
@@ -19272,7 +20053,7 @@
       <c r="F8" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="32">
         <v>3119</v>
       </c>
       <c r="H8" s="50">
@@ -19367,18 +20148,9 @@
         <v>248947</v>
       </c>
       <c r="J11" s="32"/>
-      <c r="K11" s="32">
-        <f t="shared" si="6"/>
-        <v>22405.23</v>
-      </c>
-      <c r="L11" s="32">
-        <f t="shared" si="7"/>
-        <v>22405.23</v>
-      </c>
-      <c r="M11" s="110">
-        <f t="shared" si="8"/>
-        <v>293757.45999999996</v>
-      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="80">
@@ -19399,7 +20171,7 @@
       <c r="F12" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="32">
         <v>3145</v>
       </c>
       <c r="H12" s="50">
@@ -19435,7 +20207,7 @@
       <c r="F13" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="32">
         <v>3145</v>
       </c>
       <c r="H13" s="50">
@@ -19471,7 +20243,7 @@
       <c r="F14" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="32">
         <v>3145</v>
       </c>
       <c r="H14" s="50">
@@ -19507,7 +20279,7 @@
       <c r="F15" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="32">
         <v>3145</v>
       </c>
       <c r="H15" s="50">
@@ -19602,18 +20374,9 @@
         <v>209966</v>
       </c>
       <c r="J18" s="32"/>
-      <c r="K18" s="32">
-        <f t="shared" ref="K18" si="12">I18*9%</f>
-        <v>18896.939999999999</v>
-      </c>
-      <c r="L18" s="32">
-        <f t="shared" ref="L18" si="13">I18*9%</f>
-        <v>18896.939999999999</v>
-      </c>
-      <c r="M18" s="110">
-        <f t="shared" ref="M18" si="14">SUM(I18,K18,L18,)</f>
-        <v>247759.88</v>
-      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="80">
@@ -19632,7 +20395,7 @@
       <c r="F19" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="32">
         <v>347</v>
       </c>
       <c r="H19" s="50">
@@ -19691,7 +20454,7 @@
       <c r="F21" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="32">
         <v>8553</v>
       </c>
       <c r="H21" s="50">
@@ -19704,11 +20467,11 @@
         <v>0.18</v>
       </c>
       <c r="K21" s="41">
-        <f t="shared" ref="K21:K31" si="15">I21*9%</f>
+        <f t="shared" ref="K21:K31" si="12">I21*9%</f>
         <v>233.46539999999999</v>
       </c>
       <c r="L21" s="41">
-        <f t="shared" ref="L21:L31" si="16">I21*9%</f>
+        <f t="shared" ref="L21:L31" si="13">I21*9%</f>
         <v>233.46539999999999</v>
       </c>
       <c r="M21" s="41">
@@ -19735,7 +20498,7 @@
       <c r="F22" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="83">
         <v>311</v>
       </c>
       <c r="H22" s="50">
@@ -19748,11 +20511,11 @@
         <v>0.18</v>
       </c>
       <c r="K22" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>7441.875</v>
       </c>
       <c r="L22" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>7441.875</v>
       </c>
       <c r="M22" s="41">
@@ -19779,7 +20542,7 @@
       <c r="F23" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="32" t="s">
         <v>499</v>
       </c>
       <c r="H23" s="50">
@@ -19792,11 +20555,11 @@
         <v>0.18</v>
       </c>
       <c r="K23" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>3366</v>
       </c>
       <c r="L23" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>3366</v>
       </c>
       <c r="M23" s="41">
@@ -19817,7 +20580,7 @@
       <c r="F24" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="32" t="s">
         <v>499</v>
       </c>
       <c r="H24" s="50">
@@ -19828,11 +20591,11 @@
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>3595.5</v>
       </c>
       <c r="L24" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>3595.5</v>
       </c>
       <c r="M24" s="41">
@@ -19856,11 +20619,11 @@
       </c>
       <c r="J25" s="41"/>
       <c r="K25" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>31.5</v>
       </c>
       <c r="L25" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>31.5</v>
       </c>
       <c r="M25" s="41">
@@ -19884,11 +20647,11 @@
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="L26" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>135</v>
       </c>
       <c r="M26" s="41">
@@ -19916,7 +20679,7 @@
         <v>152</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H27" s="50">
         <v>44238</v>
@@ -19928,11 +20691,11 @@
         <v>0.18</v>
       </c>
       <c r="K27" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>33.75</v>
       </c>
       <c r="L27" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>33.75</v>
       </c>
       <c r="M27" s="41">
@@ -19954,7 +20717,7 @@
         <v>152</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H28" s="50">
         <v>44238</v>
@@ -19964,11 +20727,11 @@
       </c>
       <c r="J28" s="41"/>
       <c r="K28" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>19.439999999999998</v>
       </c>
       <c r="L28" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>19.439999999999998</v>
       </c>
       <c r="M28" s="41">
@@ -19990,7 +20753,7 @@
         <v>152</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H29" s="50">
         <v>44238</v>
@@ -20000,11 +20763,11 @@
       </c>
       <c r="J29" s="41"/>
       <c r="K29" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>8.1</v>
       </c>
       <c r="L29" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>8.1</v>
       </c>
       <c r="M29" s="41">
@@ -20026,7 +20789,7 @@
         <v>152</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H30" s="50">
         <v>44238</v>
@@ -20036,11 +20799,11 @@
       </c>
       <c r="J30" s="41"/>
       <c r="K30" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>56.25</v>
       </c>
       <c r="L30" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>56.25</v>
       </c>
       <c r="M30" s="41">
@@ -20062,7 +20825,7 @@
         <v>152</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H31" s="50">
         <v>44238</v>
@@ -20072,11 +20835,11 @@
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>496.79999999999995</v>
       </c>
       <c r="L31" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>496.79999999999995</v>
       </c>
       <c r="M31" s="41">
@@ -20098,7 +20861,7 @@
         <v>152</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H32" s="50">
         <v>44238</v>
@@ -20136,7 +20899,7 @@
         <v>152</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H33" s="50">
         <v>44238</v>
@@ -20192,11 +20955,11 @@
         <v>0.18</v>
       </c>
       <c r="K34" s="41">
-        <f t="shared" ref="K34" si="17">I34*9%</f>
+        <f t="shared" ref="K34" si="14">I34*9%</f>
         <v>378</v>
       </c>
       <c r="L34" s="41">
-        <f t="shared" ref="L34" si="18">I34*9%</f>
+        <f t="shared" ref="L34" si="15">I34*9%</f>
         <v>378</v>
       </c>
       <c r="M34" s="41">
@@ -20230,15 +20993,15 @@
         <v>0.18</v>
       </c>
       <c r="K35" s="41">
-        <f t="shared" ref="K35" si="19">I35*9%</f>
+        <f t="shared" ref="K35" si="16">I35*9%</f>
         <v>346.5</v>
       </c>
       <c r="L35" s="41">
-        <f t="shared" ref="L35" si="20">I35*9%</f>
+        <f t="shared" ref="L35" si="17">I35*9%</f>
         <v>346.5</v>
       </c>
       <c r="M35" s="41">
-        <f t="shared" ref="M35" si="21">SUM(I35,K35,L35,)</f>
+        <f t="shared" ref="M35" si="18">SUM(I35,K35,L35,)</f>
         <v>4543</v>
       </c>
     </row>
@@ -20258,15 +21021,15 @@
       </c>
       <c r="J36" s="41"/>
       <c r="K36" s="41">
-        <f t="shared" ref="K36" si="22">I36*9%</f>
+        <f t="shared" ref="K36" si="19">I36*9%</f>
         <v>27</v>
       </c>
       <c r="L36" s="41">
-        <f t="shared" ref="L36" si="23">I36*9%</f>
+        <f t="shared" ref="L36" si="20">I36*9%</f>
         <v>27</v>
       </c>
       <c r="M36" s="41">
-        <f t="shared" ref="M36:M37" si="24">SUM(I36,K36,L36,)</f>
+        <f t="shared" ref="M36:M37" si="21">SUM(I36,K36,L36,)</f>
         <v>354</v>
       </c>
     </row>
@@ -20310,7 +21073,7 @@
         <v>264.42</v>
       </c>
       <c r="M37" s="41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>4935.84</v>
       </c>
     </row>
@@ -20338,15 +21101,15 @@
       </c>
       <c r="J38" s="41"/>
       <c r="K38" s="41">
-        <f t="shared" ref="K38:K40" si="25">I38*6%</f>
+        <f t="shared" ref="K38:K40" si="22">I38*6%</f>
         <v>26.4</v>
       </c>
       <c r="L38" s="41">
-        <f t="shared" ref="L38:L40" si="26">I38*6%</f>
+        <f t="shared" ref="L38:L40" si="23">I38*6%</f>
         <v>26.4</v>
       </c>
       <c r="M38" s="41">
-        <f t="shared" ref="M38:M44" si="27">SUM(I38,K38,L38,)</f>
+        <f t="shared" ref="M38:M44" si="24">SUM(I38,K38,L38,)</f>
         <v>492.79999999999995</v>
       </c>
     </row>
@@ -20374,15 +21137,15 @@
       </c>
       <c r="J39" s="41"/>
       <c r="K39" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>174.95999999999998</v>
       </c>
       <c r="L39" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>174.95999999999998</v>
       </c>
       <c r="M39" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>3265.92</v>
       </c>
     </row>
@@ -20410,15 +21173,15 @@
       </c>
       <c r="J40" s="41"/>
       <c r="K40" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>17.28</v>
       </c>
       <c r="L40" s="41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>17.28</v>
       </c>
       <c r="M40" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>322.55999999999995</v>
       </c>
     </row>
@@ -20460,7 +21223,7 @@
         <v>52819.199999999997</v>
       </c>
       <c r="M41" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>692518.39999999991</v>
       </c>
     </row>
@@ -20479,18 +21242,9 @@
         <v>9500</v>
       </c>
       <c r="J42" s="32"/>
-      <c r="K42" s="32">
-        <f>I42*9%</f>
-        <v>855</v>
-      </c>
-      <c r="L42" s="32">
-        <f>I42*9%</f>
-        <v>855</v>
-      </c>
-      <c r="M42" s="32">
-        <f t="shared" si="27"/>
-        <v>11210</v>
-      </c>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="80">
@@ -20532,7 +21286,7 @@
         <v>5.3000000000000007</v>
       </c>
       <c r="M43" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>222.60000000000002</v>
       </c>
     </row>
@@ -20570,7 +21324,7 @@
         <v>729</v>
       </c>
       <c r="M44" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>9558</v>
       </c>
     </row>
@@ -20600,15 +21354,15 @@
         <v>0.18</v>
       </c>
       <c r="K45" s="41">
-        <f t="shared" ref="K45:K53" si="28">I45*9%</f>
+        <f t="shared" ref="K45:K53" si="25">I45*9%</f>
         <v>27</v>
       </c>
       <c r="L45" s="41">
-        <f t="shared" ref="L45:L53" si="29">I45*9%</f>
+        <f t="shared" ref="L45:L53" si="26">I45*9%</f>
         <v>27</v>
       </c>
       <c r="M45" s="41">
-        <f t="shared" ref="M45:M66" si="30">SUM(I45,K45,L45,)</f>
+        <f t="shared" ref="M45:M78" si="27">SUM(I45,K45,L45,)</f>
         <v>354</v>
       </c>
     </row>
@@ -20638,15 +21392,15 @@
         <v>0.18</v>
       </c>
       <c r="K46" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>10.799999999999999</v>
       </c>
       <c r="L46" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>10.799999999999999</v>
       </c>
       <c r="M46" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>141.60000000000002</v>
       </c>
     </row>
@@ -20682,15 +21436,15 @@
         <v>0.18</v>
       </c>
       <c r="K47" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1354.5</v>
       </c>
       <c r="L47" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1354.5</v>
       </c>
       <c r="M47" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>17759</v>
       </c>
     </row>
@@ -20713,7 +21467,7 @@
       <c r="F48" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G48" s="32">
         <v>3402</v>
       </c>
       <c r="H48" s="50">
@@ -20726,15 +21480,15 @@
         <v>0.18</v>
       </c>
       <c r="K48" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>14017.5</v>
       </c>
       <c r="L48" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>14017.5</v>
       </c>
       <c r="M48" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>183785</v>
       </c>
     </row>
@@ -20751,7 +21505,7 @@
       <c r="F49" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G49" s="41">
+      <c r="G49" s="32">
         <v>3402</v>
       </c>
       <c r="H49" s="50">
@@ -20762,15 +21516,15 @@
       </c>
       <c r="J49" s="41"/>
       <c r="K49" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>2227.2570000000001</v>
       </c>
       <c r="L49" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>2227.2570000000001</v>
       </c>
       <c r="M49" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>29201.814000000002</v>
       </c>
     </row>
@@ -20787,7 +21541,7 @@
       <c r="F50" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G50" s="41">
+      <c r="G50" s="32">
         <v>3402</v>
       </c>
       <c r="H50" s="50">
@@ -20798,15 +21552,15 @@
       </c>
       <c r="J50" s="41"/>
       <c r="K50" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>6559.3890000000001</v>
       </c>
       <c r="L50" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>6559.3890000000001</v>
       </c>
       <c r="M50" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>86000.877999999997</v>
       </c>
     </row>
@@ -20823,7 +21577,7 @@
       <c r="F51" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G51" s="41">
+      <c r="G51" s="32">
         <v>3402</v>
       </c>
       <c r="H51" s="50">
@@ -20834,15 +21588,15 @@
       </c>
       <c r="J51" s="41"/>
       <c r="K51" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>12757.5</v>
       </c>
       <c r="L51" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>12757.5</v>
       </c>
       <c r="M51" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>167265</v>
       </c>
     </row>
@@ -20862,15 +21616,15 @@
       </c>
       <c r="J52" s="41"/>
       <c r="K52" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>162</v>
       </c>
       <c r="L52" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>162</v>
       </c>
       <c r="M52" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>2124</v>
       </c>
     </row>
@@ -20890,15 +21644,15 @@
       </c>
       <c r="J53" s="41"/>
       <c r="K53" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>149.4</v>
       </c>
       <c r="L53" s="41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>149.4</v>
       </c>
       <c r="M53" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1958.8000000000002</v>
       </c>
     </row>
@@ -20942,7 +21696,7 @@
         <v>372</v>
       </c>
       <c r="M54" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>6944</v>
       </c>
     </row>
@@ -20965,7 +21719,7 @@
       <c r="F55" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="G55" s="41">
+      <c r="G55" s="32">
         <v>190</v>
       </c>
       <c r="H55" s="50">
@@ -20978,15 +21732,15 @@
         <v>0.18</v>
       </c>
       <c r="K55" s="41">
-        <f t="shared" ref="K55:K66" si="31">I55*9%</f>
+        <f t="shared" ref="K55:K78" si="28">I55*9%</f>
         <v>3375</v>
       </c>
       <c r="L55" s="41">
-        <f t="shared" ref="L55:L66" si="32">I55*9%</f>
+        <f t="shared" ref="L55:L78" si="29">I55*9%</f>
         <v>3375</v>
       </c>
       <c r="M55" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>44250</v>
       </c>
     </row>
@@ -21003,7 +21757,7 @@
       <c r="F56" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="G56" s="41">
+      <c r="G56" s="32">
         <v>190</v>
       </c>
       <c r="H56" s="50">
@@ -21014,15 +21768,15 @@
       </c>
       <c r="J56" s="41"/>
       <c r="K56" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>2668.5</v>
       </c>
       <c r="L56" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>2668.5</v>
       </c>
       <c r="M56" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>34987</v>
       </c>
     </row>
@@ -21045,7 +21799,7 @@
       <c r="F57" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G57" s="41">
+      <c r="G57" s="32">
         <v>3507</v>
       </c>
       <c r="H57" s="50">
@@ -21058,15 +21812,15 @@
         <v>0.18</v>
       </c>
       <c r="K57" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>9344.0249999999996</v>
       </c>
       <c r="L57" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>9344.0249999999996</v>
       </c>
       <c r="M57" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>122510.54999999999</v>
       </c>
     </row>
@@ -21083,7 +21837,7 @@
       <c r="F58" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G58" s="41">
+      <c r="G58" s="32">
         <v>3507</v>
       </c>
       <c r="H58" s="50">
@@ -21094,15 +21848,15 @@
       </c>
       <c r="J58" s="41"/>
       <c r="K58" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>2259.9</v>
       </c>
       <c r="L58" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>2259.9</v>
       </c>
       <c r="M58" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>29629.800000000003</v>
       </c>
     </row>
@@ -21119,7 +21873,7 @@
       <c r="F59" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G59" s="41">
+      <c r="G59" s="32">
         <v>3507</v>
       </c>
       <c r="H59" s="50">
@@ -21130,15 +21884,15 @@
       </c>
       <c r="J59" s="41"/>
       <c r="K59" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>4455</v>
       </c>
       <c r="L59" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>4455</v>
       </c>
       <c r="M59" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>58410</v>
       </c>
     </row>
@@ -21155,7 +21909,7 @@
       <c r="F60" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G60" s="41">
+      <c r="G60" s="32">
         <v>3507</v>
       </c>
       <c r="H60" s="50">
@@ -21166,15 +21920,15 @@
       </c>
       <c r="J60" s="41"/>
       <c r="K60" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>13932</v>
       </c>
       <c r="L60" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>13932</v>
       </c>
       <c r="M60" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>182664</v>
       </c>
     </row>
@@ -21194,15 +21948,15 @@
       </c>
       <c r="J61" s="41"/>
       <c r="K61" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>144</v>
       </c>
       <c r="L61" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>144</v>
       </c>
       <c r="M61" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1888</v>
       </c>
     </row>
@@ -21222,15 +21976,15 @@
       </c>
       <c r="J62" s="41"/>
       <c r="K62" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>126</v>
       </c>
       <c r="L62" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>126</v>
       </c>
       <c r="M62" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1652</v>
       </c>
     </row>
@@ -21253,7 +22007,7 @@
       <c r="F63" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="G63" s="41">
+      <c r="G63" s="32">
         <v>3514</v>
       </c>
       <c r="H63" s="50">
@@ -21262,17 +22016,19 @@
       <c r="I63" s="41">
         <v>128475</v>
       </c>
-      <c r="J63" s="41"/>
+      <c r="J63" s="108">
+        <v>0.18</v>
+      </c>
       <c r="K63" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>11562.75</v>
       </c>
       <c r="L63" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>11562.75</v>
       </c>
       <c r="M63" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>151600.5</v>
       </c>
     </row>
@@ -21292,15 +22048,15 @@
       </c>
       <c r="J64" s="41"/>
       <c r="K64" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="L64" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
       <c r="M64" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1180</v>
       </c>
     </row>
@@ -21320,15 +22076,15 @@
       </c>
       <c r="J65" s="41"/>
       <c r="K65" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>50.4</v>
       </c>
       <c r="L65" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>50.4</v>
       </c>
       <c r="M65" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>660.8</v>
       </c>
     </row>
@@ -21351,7 +22107,7 @@
       <c r="F66" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="G66" s="41">
+      <c r="G66" s="32">
         <v>9394</v>
       </c>
       <c r="H66" s="50">
@@ -21360,199 +22116,475 @@
       <c r="I66" s="41">
         <v>1280.08</v>
       </c>
-      <c r="J66" s="41"/>
+      <c r="J66" s="108">
+        <v>0.18</v>
+      </c>
       <c r="K66" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>115.20719999999999</v>
       </c>
       <c r="L66" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>115.20719999999999</v>
       </c>
       <c r="M66" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1510.4944</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="36"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
+      <c r="A67" s="36">
+        <v>21</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="41">
+        <v>27111900</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G67" s="32">
+        <v>9464</v>
+      </c>
+      <c r="H67" s="50">
+        <v>44254</v>
+      </c>
+      <c r="I67" s="41">
+        <v>2560.16</v>
+      </c>
+      <c r="J67" s="108">
+        <v>0.18</v>
+      </c>
+      <c r="K67" s="41">
+        <f t="shared" si="28"/>
+        <v>230.41439999999997</v>
+      </c>
+      <c r="L67" s="41">
+        <f t="shared" si="29"/>
+        <v>230.41439999999997</v>
+      </c>
+      <c r="M67" s="41">
+        <f t="shared" si="27"/>
+        <v>3020.9888000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="36"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
+      <c r="A68" s="36">
+        <v>22</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="E68" s="41">
+        <v>28044090</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68" s="32">
+        <v>220</v>
+      </c>
+      <c r="H68" s="50">
+        <v>44255</v>
+      </c>
+      <c r="I68" s="41">
+        <v>6650</v>
+      </c>
+      <c r="J68" s="108">
+        <v>0.18</v>
+      </c>
+      <c r="K68" s="41">
+        <f t="shared" si="28"/>
+        <v>598.5</v>
+      </c>
+      <c r="L68" s="41">
+        <f t="shared" si="29"/>
+        <v>598.5</v>
+      </c>
+      <c r="M68" s="41">
+        <f t="shared" si="27"/>
+        <v>7847</v>
+      </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="36"/>
-      <c r="B69" s="41"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
+      <c r="D69" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="E69" s="41">
+        <v>28112190</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69" s="32">
+        <v>220</v>
+      </c>
+      <c r="H69" s="50">
+        <v>44255</v>
+      </c>
+      <c r="I69" s="41">
+        <v>4860</v>
+      </c>
       <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
+      <c r="K69" s="41">
+        <f t="shared" si="28"/>
+        <v>437.4</v>
+      </c>
+      <c r="L69" s="41">
+        <f t="shared" si="29"/>
+        <v>437.4</v>
+      </c>
+      <c r="M69" s="41">
+        <f t="shared" si="27"/>
+        <v>5734.7999999999993</v>
+      </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="36"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
+      <c r="A70" s="36">
+        <v>23</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="E70" s="41">
+        <v>7216</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="H70" s="50">
+        <v>44252</v>
+      </c>
+      <c r="I70" s="41">
+        <v>5324</v>
+      </c>
+      <c r="J70" s="108">
+        <v>0.18</v>
+      </c>
+      <c r="K70" s="41">
+        <f t="shared" si="28"/>
+        <v>479.15999999999997</v>
+      </c>
+      <c r="L70" s="41">
+        <f t="shared" si="29"/>
+        <v>479.15999999999997</v>
+      </c>
+      <c r="M70" s="41">
+        <f t="shared" si="27"/>
+        <v>6282.32</v>
+      </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="36"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
+      <c r="D71" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="E71" s="41">
+        <v>7214</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="H71" s="50">
+        <v>44252</v>
+      </c>
+      <c r="I71" s="41">
+        <v>1435.5</v>
+      </c>
       <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
+      <c r="K71" s="41">
+        <f t="shared" si="28"/>
+        <v>129.19499999999999</v>
+      </c>
+      <c r="L71" s="41">
+        <f t="shared" si="29"/>
+        <v>129.19499999999999</v>
+      </c>
+      <c r="M71" s="41">
+        <f t="shared" si="27"/>
+        <v>1693.8899999999999</v>
+      </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="36"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
+      <c r="D72" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="E72" s="41">
+        <v>7211</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="H72" s="50">
+        <v>44252</v>
+      </c>
+      <c r="I72" s="41">
+        <v>1218</v>
+      </c>
       <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
+      <c r="K72" s="41">
+        <f t="shared" si="28"/>
+        <v>109.61999999999999</v>
+      </c>
+      <c r="L72" s="41">
+        <f t="shared" si="29"/>
+        <v>109.61999999999999</v>
+      </c>
+      <c r="M72" s="41">
+        <f t="shared" si="27"/>
+        <v>1437.2399999999998</v>
+      </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="36"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
+      <c r="D73" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="E73" s="41">
+        <v>7208</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="H73" s="50">
+        <v>44252</v>
+      </c>
+      <c r="I73" s="41">
+        <v>4644</v>
+      </c>
       <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
+      <c r="K73" s="41">
+        <f t="shared" si="28"/>
+        <v>417.96</v>
+      </c>
+      <c r="L73" s="41">
+        <f t="shared" si="29"/>
+        <v>417.96</v>
+      </c>
+      <c r="M73" s="41">
+        <f t="shared" si="27"/>
+        <v>5479.92</v>
+      </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="36"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
+      <c r="D74" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="E74" s="41">
+        <v>7211</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="H74" s="50">
+        <v>44252</v>
+      </c>
+      <c r="I74" s="41">
+        <v>826.5</v>
+      </c>
       <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
+      <c r="K74" s="41">
+        <f t="shared" si="28"/>
+        <v>74.384999999999991</v>
+      </c>
+      <c r="L74" s="41">
+        <f t="shared" si="29"/>
+        <v>74.384999999999991</v>
+      </c>
+      <c r="M74" s="41">
+        <f t="shared" si="27"/>
+        <v>975.27</v>
+      </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="36"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
+      <c r="D75" s="41" t="s">
+        <v>377</v>
+      </c>
       <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
+      <c r="F75" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="H75" s="50">
+        <v>44252</v>
+      </c>
+      <c r="I75" s="41">
+        <v>60</v>
+      </c>
       <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
+      <c r="K75" s="41">
+        <f t="shared" si="28"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="L75" s="41">
+        <f t="shared" si="29"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="M75" s="41">
+        <f t="shared" si="27"/>
+        <v>70.800000000000011</v>
+      </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="36"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
+      <c r="A76" s="36">
+        <v>24</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="E76" s="41">
+        <v>7208</v>
+      </c>
+      <c r="F76" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="H76" s="50">
+        <v>44247</v>
+      </c>
+      <c r="I76" s="41">
+        <v>12037.5</v>
+      </c>
+      <c r="J76" s="108">
+        <v>0.18</v>
+      </c>
+      <c r="K76" s="41">
+        <f t="shared" si="28"/>
+        <v>1083.375</v>
+      </c>
+      <c r="L76" s="41">
+        <f t="shared" si="29"/>
+        <v>1083.375</v>
+      </c>
+      <c r="M76" s="41">
+        <f t="shared" si="27"/>
+        <v>14204.25</v>
+      </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="36"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
+      <c r="D77" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="E77" s="41">
+        <v>7208</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="H77" s="50">
+        <v>44247</v>
+      </c>
+      <c r="I77" s="41">
+        <v>18190</v>
+      </c>
       <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
+      <c r="K77" s="41">
+        <f t="shared" si="28"/>
+        <v>1637.1</v>
+      </c>
+      <c r="L77" s="41">
+        <f t="shared" si="29"/>
+        <v>1637.1</v>
+      </c>
+      <c r="M77" s="41">
+        <f t="shared" si="27"/>
+        <v>21464.199999999997</v>
+      </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="36"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
+      <c r="D78" s="41" t="s">
+        <v>557</v>
+      </c>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="41">
+        <v>100</v>
+      </c>
       <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
+      <c r="K78" s="41">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="L78" s="41">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="M78" s="41">
+        <f t="shared" si="27"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="36"/>
@@ -21564,10 +22596,21 @@
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
+      <c r="J79" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="K79" s="41">
+        <f>SUM(K3:K78)</f>
+        <v>205191.98799999998</v>
+      </c>
+      <c r="L79" s="41">
+        <f>SUM(L3:L78)</f>
+        <v>205191.98799999998</v>
+      </c>
+      <c r="M79" s="41">
+        <f>SUM(K79:L79)</f>
+        <v>410383.97599999997</v>
+      </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="36"/>
@@ -21639,10 +22682,6 @@
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
       <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="36"/>
@@ -21868,6 +22907,51 @@
       <c r="K99" s="41"/>
       <c r="L99" s="41"/>
       <c r="M99" s="41"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="36"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="36"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="36"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -21906,10 +22990,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -21949,11 +23033,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -24860,10 +25944,10 @@
       <c r="A1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="118"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -24903,11 +25987,11 @@
       <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="53" t="s">
         <v>16</v>
       </c>
@@ -26490,10 +27574,10 @@
       <c r="B1" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="116"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -26532,11 +27616,11 @@
       <c r="I2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
       <c r="M2" s="35" t="s">
         <v>16</v>
       </c>
